--- a/test case/Moka POS Back Offices.xlsx
+++ b/test case/Moka POS Back Offices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halim\Documents\DANA\CASE STUDY 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9B8687-41B8-4CF9-A38A-F2293796FC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E44F4-F157-422F-8EA6-D4A1620A5CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -518,6 +518,161 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D89DBE8-5588-4845-8814-D8A25FCD4B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198120" y="358140"/>
+          <a:ext cx="10058400" cy="3225099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>193695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2371A37E-1373-482E-BBA4-25ED3D4220C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="3962400"/>
+          <a:ext cx="10058400" cy="7722255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>6639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AEFC7E-7E28-459F-9254-986FB82307AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="11818620"/>
+          <a:ext cx="10058400" cy="4830099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -721,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30140,8 +30295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E084F88D-7E19-443E-84DB-FCC01E58FB7E}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30398,10 +30553,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>